--- a/voortgang/portfoliomatrix S3 AI.xlsx
+++ b/voortgang/portfoliomatrix S3 AI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\hu\S3\S3_AI_lesmateriaal\voortgang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579E169B-3CEE-4C09-AC4B-926E79111466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19819613-818A-4FC1-BE94-9B282382BD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{9145D055-8147-4D48-BED2-085A2CF38ACC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>x</t>
   </si>
@@ -180,10 +180,13 @@
     <t>Portfolio-matrix van: Mathijs de Jong</t>
   </si>
   <si>
-    <t>Datum: 14/10/2025</t>
-  </si>
-  <si>
-    <t>ON</t>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>Datum: 13/01/2025</t>
+  </si>
+  <si>
+    <t>BO</t>
   </si>
 </sst>
 </file>
@@ -911,8 +914,8 @@
   </sheetPr>
   <dimension ref="B2:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="84" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,7 +983,7 @@
     </row>
     <row r="3" spans="2:36" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="39"/>
       <c r="G3" s="33"/>
@@ -1141,17 +1144,27 @@
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="M7" s="29"/>
-      <c r="N7" s="20"/>
+      <c r="N7" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="20"/>
+      <c r="P7" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="Q7" s="29"/>
-      <c r="R7" s="20"/>
+      <c r="R7" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="29"/>
       <c r="T7" s="23"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
+      <c r="V7" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="W7" s="29"/>
       <c r="X7"/>
       <c r="Y7"/>
@@ -1173,7 +1186,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="28"/>
@@ -1184,11 +1197,17 @@
       <c r="K8" s="20"/>
       <c r="L8" s="24"/>
       <c r="M8" s="29"/>
-      <c r="N8" s="20"/>
+      <c r="N8" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="O8" s="29"/>
-      <c r="P8" s="30"/>
+      <c r="P8" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="Q8" s="29"/>
-      <c r="R8" s="20"/>
+      <c r="R8" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
       <c r="U8" s="29"/>
@@ -1216,7 +1235,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="16"/>
@@ -1231,7 +1250,9 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="20"/>
       <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
+      <c r="T9" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="U9" s="24"/>
       <c r="V9" s="25"/>
       <c r="W9" s="24"/>
@@ -1303,13 +1324,21 @@
       <c r="K11" s="9"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="O11" s="24"/>
-      <c r="P11" s="20"/>
+      <c r="P11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="Q11" s="24"/>
-      <c r="R11" s="23"/>
+      <c r="R11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="S11" s="24"/>
-      <c r="T11" s="30"/>
+      <c r="T11" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="U11" s="24"/>
       <c r="V11" s="30"/>
       <c r="W11" s="24"/>
@@ -1336,7 +1365,7 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -1345,9 +1374,11 @@
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="31"/>
-      <c r="M12" s="20"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="31"/>
-      <c r="O12" s="20"/>
+      <c r="O12" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="31"/>
@@ -1384,7 +1415,9 @@
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="26"/>
-      <c r="M13" s="20"/>
+      <c r="M13" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="N13" s="26"/>
       <c r="O13" s="20"/>
       <c r="P13" s="26"/>
@@ -1394,7 +1427,9 @@
       <c r="T13" s="26"/>
       <c r="U13" s="31"/>
       <c r="V13" s="27"/>
-      <c r="W13" s="31"/>
+      <c r="W13" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="X13"/>
       <c r="Y13"/>
       <c r="Z13"/>
@@ -1416,7 +1451,7 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
@@ -1425,17 +1460,23 @@
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="31"/>
-      <c r="M14" s="20"/>
+      <c r="M14" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="N14" s="26"/>
-      <c r="O14" s="20"/>
+      <c r="O14" s="32"/>
       <c r="P14" s="26"/>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="R14" s="26"/>
       <c r="S14" s="20"/>
       <c r="T14" s="26"/>
       <c r="U14" s="20"/>
       <c r="V14" s="31"/>
-      <c r="W14" s="20"/>
+      <c r="W14" s="32" t="s">
+        <v>39</v>
+      </c>
       <c r="X14"/>
       <c r="Y14"/>
       <c r="Z14"/>
@@ -1468,7 +1509,9 @@
       <c r="N15" s="26"/>
       <c r="O15" s="20"/>
       <c r="P15" s="26"/>
-      <c r="Q15" s="20"/>
+      <c r="Q15" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="R15" s="26"/>
       <c r="S15" s="20"/>
       <c r="T15" s="26"/>
@@ -2137,6 +2180,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="cc018f0f-33de-4c4c-920d-26dc6e1acc33" xsi:nil="true"/>
@@ -2146,15 +2198,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2177,6 +2220,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FEB2382-117C-4B02-B61B-7207F73C69D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA41F33-D73A-4946-89E5-437EF57CC713}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -2191,12 +2242,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FEB2382-117C-4B02-B61B-7207F73C69D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>